--- a/Docs/세부 기획 자료/개발 이슈.xlsx
+++ b/Docs/세부 기획 자료/개발 이슈.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maze-Game-Docs\Docs\세부 기획 자료\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Unity 개발 이슈" sheetId="1" r:id="rId1"/>
     <sheet name="Server 개발 이슈" sheetId="2" r:id="rId2"/>
     <sheet name="Tool 개발 이슈" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="13">
   <si>
     <t>Unity</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +56,22 @@
   </si>
   <si>
     <t>Tool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Litjson 미로데이터 파싱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015 04 02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반똥가리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -152,7 +163,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -422,7 +433,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -433,18 +444,18 @@
   <dimension ref="B2:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="41.08203125" customWidth="1"/>
+    <col min="4" max="4" width="41.125" customWidth="1"/>
     <col min="5" max="5" width="10.25" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
     <col min="7" max="7" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="38.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,18 +475,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C4" s="4">
         <v>2</v>
       </c>
@@ -486,7 +503,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C5" s="4">
         <v>3</v>
       </c>
@@ -497,7 +514,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C6" s="4">
         <v>4</v>
       </c>
@@ -508,7 +525,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C7" s="4">
         <v>5</v>
       </c>
@@ -519,7 +536,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C8" s="4">
         <v>6</v>
       </c>
@@ -530,7 +547,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C9" s="4">
         <v>7</v>
       </c>
@@ -541,7 +558,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C10" s="4">
         <v>8</v>
       </c>
@@ -552,7 +569,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C11" s="4">
         <v>9</v>
       </c>
@@ -563,7 +580,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C12" s="4">
         <v>10</v>
       </c>
@@ -574,7 +591,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C13" s="4">
         <v>11</v>
       </c>
@@ -585,7 +602,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C14" s="4">
         <v>12</v>
       </c>
@@ -596,7 +613,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C15" s="4">
         <v>13</v>
       </c>
@@ -607,7 +624,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C16" s="4">
         <v>14</v>
       </c>
@@ -618,7 +635,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C17" s="4">
         <v>15</v>
       </c>
@@ -629,7 +646,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C18" s="4">
         <v>16</v>
       </c>
@@ -640,7 +657,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C19" s="4">
         <v>17</v>
       </c>
@@ -651,7 +668,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C20" s="4">
         <v>18</v>
       </c>
@@ -662,7 +679,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C21" s="4">
         <v>19</v>
       </c>
@@ -673,7 +690,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C22" s="4">
         <v>20</v>
       </c>
@@ -684,7 +701,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C23" s="4">
         <v>21</v>
       </c>
@@ -695,7 +712,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" s="4">
         <v>22</v>
       </c>
@@ -706,7 +723,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" s="4">
         <v>23</v>
       </c>
@@ -717,7 +734,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" s="4">
         <v>24</v>
       </c>
@@ -728,7 +745,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" s="4">
         <v>25</v>
       </c>
@@ -753,16 +770,16 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.4140625" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="4" max="4" width="39.25" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
     <col min="7" max="7" width="32.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -782,7 +799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C3" s="4">
         <v>1</v>
       </c>
@@ -793,7 +810,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C4" s="4">
         <v>2</v>
       </c>
@@ -804,7 +821,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C5" s="4">
         <v>3</v>
       </c>
@@ -815,7 +832,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C6" s="4">
         <v>4</v>
       </c>
@@ -826,7 +843,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C7" s="4">
         <v>5</v>
       </c>
@@ -837,7 +854,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C8" s="4">
         <v>6</v>
       </c>
@@ -848,7 +865,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C9" s="4">
         <v>7</v>
       </c>
@@ -859,7 +876,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C10" s="4">
         <v>8</v>
       </c>
@@ -870,7 +887,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C11" s="4">
         <v>9</v>
       </c>
@@ -881,7 +898,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C12" s="4">
         <v>10</v>
       </c>
@@ -892,7 +909,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C13" s="4">
         <v>11</v>
       </c>
@@ -903,7 +920,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C14" s="4">
         <v>12</v>
       </c>
@@ -914,7 +931,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C15" s="4">
         <v>13</v>
       </c>
@@ -925,7 +942,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C16" s="4">
         <v>14</v>
       </c>
@@ -936,7 +953,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C17" s="4">
         <v>15</v>
       </c>
@@ -947,7 +964,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C18" s="4">
         <v>16</v>
       </c>
@@ -958,7 +975,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C19" s="4">
         <v>17</v>
       </c>
@@ -969,7 +986,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C20" s="4">
         <v>18</v>
       </c>
@@ -980,7 +997,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C21" s="4">
         <v>19</v>
       </c>
@@ -991,7 +1008,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C22" s="4">
         <v>20</v>
       </c>
@@ -1002,7 +1019,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C23" s="4">
         <v>21</v>
       </c>
@@ -1013,7 +1030,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" s="4">
         <v>22</v>
       </c>
@@ -1024,7 +1041,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" s="4">
         <v>23</v>
       </c>
@@ -1035,7 +1052,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" s="4">
         <v>24</v>
       </c>
@@ -1046,7 +1063,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" s="4">
         <v>25</v>
       </c>
@@ -1071,16 +1088,16 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="41.5" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1100,7 +1117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C3" s="4">
         <v>1</v>
       </c>
@@ -1111,7 +1128,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C4" s="4">
         <v>2</v>
       </c>
@@ -1122,7 +1139,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C5" s="4">
         <v>3</v>
       </c>
@@ -1133,7 +1150,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C6" s="4">
         <v>4</v>
       </c>
@@ -1144,7 +1161,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C7" s="4">
         <v>5</v>
       </c>
@@ -1155,7 +1172,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C8" s="4">
         <v>6</v>
       </c>
@@ -1166,7 +1183,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C9" s="4">
         <v>7</v>
       </c>
@@ -1177,7 +1194,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C10" s="4">
         <v>8</v>
       </c>
@@ -1188,7 +1205,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C11" s="4">
         <v>9</v>
       </c>
@@ -1199,7 +1216,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C12" s="4">
         <v>10</v>
       </c>
@@ -1210,7 +1227,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C13" s="4">
         <v>11</v>
       </c>
@@ -1221,7 +1238,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C14" s="4">
         <v>12</v>
       </c>
@@ -1232,7 +1249,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C15" s="4">
         <v>13</v>
       </c>
@@ -1243,7 +1260,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C16" s="4">
         <v>14</v>
       </c>
@@ -1254,7 +1271,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C17" s="4">
         <v>15</v>
       </c>
@@ -1265,7 +1282,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C18" s="4">
         <v>16</v>
       </c>
@@ -1276,7 +1293,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C19" s="4">
         <v>17</v>
       </c>
@@ -1287,7 +1304,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C20" s="4">
         <v>18</v>
       </c>
@@ -1298,7 +1315,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C21" s="4">
         <v>19</v>
       </c>
@@ -1309,7 +1326,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C22" s="4">
         <v>20</v>
       </c>
@@ -1320,7 +1337,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C23" s="4">
         <v>21</v>
       </c>
@@ -1331,7 +1348,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="C24" s="4">
         <v>22</v>
       </c>
@@ -1342,7 +1359,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" s="4">
         <v>23</v>
       </c>
@@ -1353,7 +1370,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" s="4">
         <v>24</v>
       </c>
@@ -1364,7 +1381,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" s="4">
         <v>25</v>
       </c>
